--- a/Excel_Parameterization/bin/TESTDATA/SAUCE_LOGIN.xlsx
+++ b/Excel_Parameterization/bin/TESTDATA/SAUCE_LOGIN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SAUCE" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>USERNAME</t>
   </si>
@@ -55,19 +55,37 @@
     <t>username1</t>
   </si>
   <si>
+    <t>username2</t>
+  </si>
+  <si>
+    <t>username3</t>
+  </si>
+  <si>
+    <t>username4</t>
+  </si>
+  <si>
+    <t>username5</t>
+  </si>
+  <si>
+    <t>username6</t>
+  </si>
+  <si>
+    <t>username7</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>interest_rate</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Category</t>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
   </si>
   <si>
     <t>Status</t>
@@ -1011,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
@@ -1068,6 +1086,54 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1091,10 +1157,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1116,30 +1182,30 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A2:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
